--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,7 +269,7 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}termination-reason-code-invariant:When status is stopped, only certain statusReason values are allowed {status = 'stopped' and statusReason.exists() and statusReason.coding.exists() implies statusReason.coding.exists(system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006'))}termination-reason-invariant:Certain statusReason values are allowed only when status is stopped {statusReason.exists() and statusReason.coding.exists(
       system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or
- code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}</t>
+ code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-rad-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-rad-req-2:The performedPeriod element is required and must be provided. {performedPeriod.exists() and performedPeriod.hasValue()}o-rad-req-3:The actualNumberOfSessions extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions').exists()}o-rad-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -618,7 +618,7 @@
     <t>therapyLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.2.0}
 </t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons|0.2.0</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -902,7 +902,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>OnconovaRadiotherapySummary</t>
+    <t>OnconovaRadiotherapyCourseSummary</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a summary of a course of radiotherapy delivered to a patient. It records the treatment intent, termination reason, modalities, techniques, number of sessions, and doses delivered to one or more body volumes. Whether the course has been fully delivered or stopped is indicated in the status element.
-This profile extends the base mCODE [RadiotherapyCourseSummary profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-course-summary) to include specific constraints and requirements for Onconova.</t>
+    <t xml:space="preserve">A profile representing a summary of a course of radiotherapy delivered to a patient. It records the treatment intent, termination reason, modalities, techniques, number of sessions, and doses delivered to one or more body volumes. Whether the course has been fully delivered or stopped is indicated in the status element.
+This profile extends the base mCODE [RadiotherapyCourseSummary profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-course-summary) to include specific constraints and requirements for Onconova.
+**Conformance:**
+Procedure resources representing a radiotherapy in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-course-summary|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-course-summary</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -364,7 +366,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -425,6 +427,9 @@
     <t>Procedure.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -455,7 +460,7 @@
     <t>treatmentIntent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent}
 </t>
   </si>
   <si>
@@ -475,15 +480,11 @@
     <t>terminationReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-treatment-termination-reason|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-treatment-termination-reason}
 </t>
   </si>
   <si>
-    <t>Treatment Termination Reason Extension (deprecated)</t>
-  </si>
-  <si>
-    <t>A code explaining the unplanned or premature termination, or normal completion, of a plan of treatment, course of medication, or research study.
-This extension is deprecated since it is redundant with the statusReason field.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>Procedure.extension:modalityAndTechnique</t>
@@ -492,7 +493,7 @@
     <t>modalityAndTechnique</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-modality-and-technique|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-modality-and-technique}
 </t>
   </si>
   <si>
@@ -586,7 +587,7 @@
     <t>actualNumberOfSessions</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions}
 </t>
   </si>
   <si>
@@ -602,7 +603,7 @@
     <t>doseDeliveredToVolume</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-dose-delivered-to-volume|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-dose-delivered-to-volume}
 </t>
   </si>
   <si>
@@ -618,7 +619,7 @@
     <t>therapyLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-reference}
 </t>
   </si>
   <si>
@@ -685,16 +686,10 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
+    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, order set or other definition that is adhered to in whole or in part by this Procedure.</t>
-  </si>
-  <si>
     <t>Event.instantiatesCanonical</t>
   </si>
   <si>
@@ -702,12 +697,6 @@
   </si>
   <si>
     <t>Procedure.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, order set or other definition that is adhered to in whole or in part by this Procedure.</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -723,14 +712,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan|http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest)
 </t>
-  </si>
-  <si>
-    <t>(USCDI) A request for this procedure</t>
-  </si>
-  <si>
-    <t>A reference to a resource that contains details of the request for this procedure.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -746,16 +729,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|4.0.1|Observation|4.0.1|MedicationAdministration|4.0.1)
+    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular procedure is a component or step.</t>
-  </si>
-  <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).</t>
   </si>
   <si>
@@ -766,12 +743,6 @@
   </si>
   <si>
     <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>(USCDI) preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally, this will be the in-progress or completed state.</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -781,7 +752,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/event-status</t>
   </si>
   <si>
     <t xml:space="preserve">us-core-7
@@ -817,7 +788,7 @@
     <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -841,7 +812,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -880,7 +851,7 @@
     <t>Codes describing the type of  Procedure</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -902,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -927,7 +898,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -959,7 +930,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) When the procedure was performed</t>
+    <t>The time period over which the radiotherapy course was performed</t>
   </si>
   <si>
     <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
@@ -983,16 +954,10 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
     <t>.participation[typeCode=AUT].role</t>
   </si>
   <si>
@@ -1000,12 +965,6 @@
   </si>
   <si>
     <t>Procedure.asserter</t>
-  </si>
-  <si>
-    <t>Person who asserts this procedure</t>
-  </si>
-  <si>
-    <t>Individual who is making the procedure statement.</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -1021,12 +980,6 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure</t>
-  </si>
-  <si>
-    <t>Limited to "real" people rather than equipment.</t>
-  </si>
-  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1096,7 +1049,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1111,7 +1064,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1139,7 +1092,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1158,16 +1111,10 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
-    <t>Where the procedure happened</t>
-  </si>
-  <si>
-    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
-  </si>
-  <si>
     <t>Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
@@ -1180,16 +1127,10 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed</t>
-  </si>
-  <si>
-    <t>The coded reason why the procedure was performed. This may be a coded entity of some type, or may simply be present as text.</t>
-  </si>
-  <si>
     <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disorder-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disorder-vs</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1204,11 +1145,11 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns|6.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition)
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed</t>
+    <t>The condition(s) that motivated the radiotherapy treatment</t>
   </si>
   <si>
     <t>The justification of why the procedure was performed.</t>
@@ -1224,16 +1165,10 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>All body structure(s) treated</t>
-  </si>
-  <si>
-    <t>Coded body structure(s) treated in this course of radiotherapy. These codes represent general locations. For additional detail, refer to the BodyStructures references in the doseDeliveredToVolume extension.</t>
-  </si>
-  <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-radiotherapy-treatment-location-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-radiotherapy-treatment-location-vs</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1257,7 +1192,7 @@
     <t>locationQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier}
 </t>
   </si>
   <si>
@@ -1270,7 +1205,7 @@
     <t>lateralityQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier}
 </t>
   </si>
   <si>
@@ -1332,19 +1267,13 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure</t>
-  </si>
-  <si>
-    <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?</t>
-  </si>
-  <si>
     <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
   </si>
   <si>
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1353,16 +1282,10 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
+    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure</t>
-  </si>
-  <si>
-    <t>This could be a histology result, pathology report, surgical report, etc.</t>
-  </si>
-  <si>
     <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
   </si>
   <si>
@@ -1372,19 +1295,13 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure</t>
-  </si>
-  <si>
-    <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.</t>
-  </si>
-  <si>
     <t>If complications are only expressed by the narrative text, they can be captured using the CodeableConcept.text.</t>
   </si>
   <si>
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1393,32 +1310,20 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1)
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure</t>
-  </si>
-  <si>
-    <t>Any complications that occurred during the procedure, or in the immediate post-performance period.</t>
-  </si>
-  <si>
     <t>This is used to document a condition that is a result of the procedure, not the condition that was the reason for the procedure.</t>
   </si>
   <si>
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up</t>
-  </si>
-  <si>
-    <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.</t>
-  </si>
-  <si>
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1431,12 +1336,6 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure</t>
-  </si>
-  <si>
-    <t>Any other notes and comments about the procedure.</t>
-  </si>
-  <si>
     <t>Event.note</t>
   </si>
   <si>
@@ -1449,12 +1348,6 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device</t>
-  </si>
-  <si>
-    <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
-  </si>
-  <si>
     <t>.participation[typeCode=DEV].role[classCode=MANU]</t>
   </si>
   <si>
@@ -1479,7 +1372,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1488,7 +1381,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1504,14 +1397,8 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|Medication|4.0.1|Substance|4.0.1)
+    <t xml:space="preserve">Reference(Device|Medication|Substance)
 </t>
-  </si>
-  <si>
-    <t>Items used during procedure</t>
-  </si>
-  <si>
-    <t>Identifies medications, devices and any other substance used as part of the procedure.</t>
   </si>
   <si>
     <t>For devices actually implanted or removed, use Procedure.device.</t>
@@ -1527,16 +1414,10 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure</t>
-  </si>
-  <si>
-    <t>Identifies coded items that were used as part of the procedure.</t>
-  </si>
-  <si>
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1878,7 +1759,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1893,7 +1774,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.46484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2840,7 +2721,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2855,13 +2736,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2900,17 +2781,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2922,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2939,20 +2820,20 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>86</v>
@@ -2967,13 +2848,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3024,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3033,10 +2914,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3053,13 +2934,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -3081,10 +2962,10 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>148</v>
@@ -3138,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3147,10 +3028,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -3252,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3261,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>154</v>
@@ -3294,7 +3175,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>86</v>
@@ -3366,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3375,10 +3256,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3480,7 +3361,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3489,10 +3370,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3594,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3606,7 +3487,7 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3649,7 +3530,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>172</v>
@@ -3722,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -3884,10 +3765,10 @@
         <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3953,10 +3834,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
@@ -3967,10 +3848,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3996,13 +3877,13 @@
         <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4052,7 +3933,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4067,10 +3948,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -4081,14 +3962,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4107,13 +3988,13 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4164,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4179,10 +4060,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4193,14 +4074,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4219,16 +4100,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4278,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4293,10 +4174,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -4307,10 +4188,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4336,13 +4217,13 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4368,11 +4249,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4390,7 +4271,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4399,19 +4280,19 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4419,14 +4300,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4445,16 +4326,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4480,11 +4361,11 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4502,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4517,10 +4398,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4531,10 +4412,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4557,13 +4438,13 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4590,13 +4471,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4614,7 +4495,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4632,10 +4513,10 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4643,14 +4524,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4669,17 +4550,17 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4689,7 +4570,7 @@
         <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>20</v>
@@ -4704,13 +4585,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4728,7 +4609,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4743,28 +4624,28 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4783,13 +4664,13 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4840,7 +4721,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4855,24 +4736,24 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4895,16 +4776,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4954,7 +4835,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4969,24 +4850,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5009,16 +4890,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5068,7 +4949,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5077,30 +4958,30 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5123,13 +5004,13 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>148</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5180,7 +5061,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5198,10 +5079,10 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5209,10 +5090,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5235,13 +5116,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5292,7 +5173,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5310,10 +5191,10 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5321,10 +5202,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5347,13 +5228,13 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5404,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5419,10 +5300,10 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5433,10 +5314,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5459,13 +5340,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5516,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5534,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5545,10 +5426,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5571,13 +5452,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>174</v>
@@ -5630,7 +5511,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5642,13 +5523,13 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5659,14 +5540,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5685,13 +5566,13 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>174</v>
@@ -5746,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5758,7 +5639,7 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -5775,10 +5656,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5801,17 +5682,17 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5836,13 +5717,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5860,7 +5741,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5875,24 +5756,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5915,17 +5796,17 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5974,7 +5855,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5989,24 +5870,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6029,17 +5910,17 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6088,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6106,7 +5987,7 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -6117,10 +5998,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6143,17 +6024,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>148</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>148</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6202,7 +6083,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6220,10 +6101,10 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6231,10 +6112,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6257,16 +6138,16 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>148</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>148</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6292,11 +6173,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6314,7 +6195,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6329,13 +6210,13 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6343,10 +6224,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6354,7 +6235,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6369,16 +6250,16 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6428,7 +6309,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6443,13 +6324,13 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6457,10 +6338,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6483,16 +6364,16 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6518,11 +6399,11 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6540,7 +6421,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6558,21 +6439,21 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6595,13 +6476,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6652,7 +6533,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6670,7 +6551,7 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6681,10 +6562,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6707,13 +6588,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>174</v>
@@ -6754,19 +6635,19 @@
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6778,13 +6659,13 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6795,13 +6676,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>20</v>
@@ -6823,13 +6704,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6880,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6892,7 +6773,7 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6909,13 +6790,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
@@ -6937,13 +6818,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6994,7 +6875,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7006,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7023,10 +6904,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7049,19 +6930,19 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7110,7 +6991,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7128,21 +7009,21 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7165,19 +7046,19 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7226,7 +7107,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7244,21 +7125,21 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7281,16 +7162,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>148</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7316,13 +7197,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7340,7 +7221,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7358,7 +7239,7 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7369,10 +7250,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7395,16 +7276,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7454,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7472,7 +7353,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7483,10 +7364,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7509,16 +7390,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>148</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>148</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7544,13 +7425,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7568,7 +7449,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7586,7 +7467,7 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7597,10 +7478,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7623,17 +7504,17 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7682,7 +7563,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7700,7 +7581,7 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7711,10 +7592,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7737,13 +7618,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7770,13 +7651,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7794,7 +7675,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7812,7 +7693,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7823,10 +7704,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7849,13 +7730,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>148</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>426</v>
+        <v>148</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7906,7 +7787,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7921,24 +7802,24 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7961,13 +7842,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
+        <v>148</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8018,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8036,7 +7917,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -8047,10 +7928,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8073,13 +7954,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8130,7 +8011,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8148,7 +8029,7 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8159,10 +8040,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8185,13 +8066,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>174</v>
@@ -8244,7 +8125,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8256,13 +8137,13 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8273,14 +8154,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8299,13 +8180,13 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>174</v>
@@ -8360,7 +8241,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8372,7 +8253,7 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
@@ -8389,10 +8270,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8415,13 +8296,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8451,10 +8332,10 @@
         <v>110</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8472,7 +8353,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8490,7 +8371,7 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8501,10 +8382,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8527,13 +8408,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8584,7 +8465,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -8602,7 +8483,7 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8613,10 +8494,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8639,19 +8520,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>450</v>
+        <v>148</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>451</v>
+        <v>148</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8700,7 +8581,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8718,7 +8599,7 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8729,10 +8610,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8755,16 +8636,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>148</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>457</v>
+        <v>148</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8790,13 +8671,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8814,7 +8695,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8832,7 +8713,7 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,7 +271,7 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}termination-reason-code-invariant:When status is stopped, only certain statusReason values are allowed {status = 'stopped' and statusReason.exists() and statusReason.coding.exists() implies statusReason.coding.exists(system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006'))}termination-reason-invariant:Certain statusReason values are allowed only when status is stopped {statusReason.exists() and statusReason.coding.exists(
       system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or
- code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-rad-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-rad-req-2:The performedPeriod element is required and must be provided. {performedPeriod.exists() and performedPeriod.hasValue()}o-rad-req-3:The actualNumberOfSessions extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions').exists()}o-rad-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
+ code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-rad-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-rad-req-2:The performedPeriod element is required and must be provided. {performedPeriod.exists()}o-rad-req-3:The actualNumberOfSessions extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions').exists()}o-rad-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -472,6 +472,86 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.id</t>
+  </si>
+  <si>
+    <t>Procedure.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.value[x]</t>
+  </si>
+  <si>
+    <t>Procedure.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-intents</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Procedure.extension:terminationReason</t>
@@ -749,9 +829,6 @@
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/event-status</t>
   </si>
   <si>
@@ -773,10 +850,6 @@
   <si>
     <t>Suspended Reason
 Cancelled Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason for current status</t>
@@ -989,22 +1062,6 @@
     <t>Procedure.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Procedure.performer.extension</t>
   </si>
   <si>
@@ -1012,9 +1069,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -1181,9 +1235,6 @@
   </si>
   <si>
     <t>Procedure.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Procedure.bodySite.extension:locationQualifier</t>
@@ -1740,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2937,11 +2988,9 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
@@ -2968,7 +3017,7 @@
         <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3019,25 +3068,25 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -3046,16 +3095,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3064,10 +3111,10 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>20</v>
@@ -3076,13 +3123,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3121,19 +3168,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3142,10 +3189,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3160,16 +3207,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3181,7 +3226,7 @@
         <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>20</v>
@@ -3190,7 +3235,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>158</v>
@@ -3198,14 +3243,16 @@
       <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -3247,25 +3294,25 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3274,28 +3321,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
@@ -3304,13 +3349,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3337,13 +3382,11 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3361,25 +3404,25 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3388,15 +3431,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -3409,7 +3452,7 @@
         <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
@@ -3418,13 +3461,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3484,7 +3527,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>138</v>
@@ -3502,16 +3545,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3521,29 +3566,25 @@
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3591,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3600,16 +3641,16 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3618,48 +3659,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3707,7 +3746,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3716,32 +3755,34 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
+      <c r="B18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3753,22 +3794,22 @@
         <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3819,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3828,16 +3869,16 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
@@ -3846,14 +3887,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3862,29 +3905,27 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3933,7 +3974,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3945,13 +3986,13 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3962,14 +4003,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3982,22 +4023,26 @@
         <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4045,7 +4090,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4057,13 +4102,13 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4074,14 +4119,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4100,18 +4145,20 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4159,7 +4206,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4174,24 +4221,24 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4199,32 +4246,30 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4249,11 +4294,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4271,53 +4318,53 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>20</v>
@@ -4326,13 +4373,13 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>218</v>
@@ -4361,11 +4408,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4383,13 +4432,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -4398,10 +4447,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4412,21 +4461,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4438,13 +4487,13 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4471,13 +4520,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4495,13 +4544,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4510,38 +4559,38 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -4550,18 +4599,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4570,7 +4619,7 @@
         <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>20</v>
@@ -4585,13 +4634,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4609,13 +4658,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -4624,28 +4673,28 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4658,21 +4707,23 @@
         <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4697,13 +4748,11 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4721,7 +4770,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4730,34 +4779,34 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4767,7 +4816,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4776,16 +4825,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4811,13 +4860,11 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4835,7 +4882,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4850,24 +4897,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4881,7 +4928,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
@@ -4890,17 +4937,15 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4925,13 +4970,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4949,7 +4994,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4958,44 +5003,44 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5004,16 +5049,18 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5022,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5037,13 +5084,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5061,7 +5108,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5076,38 +5123,38 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
@@ -5116,13 +5163,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5173,10 +5220,10 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -5188,24 +5235,24 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5216,7 +5263,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5228,15 +5275,17 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5285,13 +5334,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -5300,24 +5349,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5331,24 +5380,26 @@
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5406,41 +5457,41 @@
         <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5449,20 +5500,18 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5511,28 +5560,28 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -5540,46 +5589,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5627,28 +5672,28 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5656,10 +5701,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5670,7 +5715,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5682,18 +5727,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5717,37 +5760,37 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -5756,16 +5799,16 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -5781,7 +5824,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5793,21 +5836,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5855,10 +5896,10 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5867,38 +5908,38 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5910,18 +5951,18 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5969,25 +6010,25 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5998,43 +6039,45 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6083,39 +6126,39 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6126,10 +6169,10 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6138,18 +6181,18 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6173,11 +6216,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6195,13 +6240,13 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -6210,24 +6255,24 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6238,10 +6283,10 @@
         <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6250,18 +6295,18 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6309,13 +6354,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6324,7 +6369,7 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>329</v>
@@ -6333,15 +6378,15 @@
         <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6352,30 +6397,30 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6399,11 +6444,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6421,13 +6468,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6439,21 +6486,21 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6473,19 +6520,21 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6533,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6545,22 +6594,22 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>343</v>
       </c>
@@ -6569,7 +6618,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6579,25 +6628,25 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6623,31 +6672,29 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6659,60 +6706,60 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6761,7 +6808,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6773,31 +6820,29 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6806,27 +6851,29 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6851,13 +6898,11 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6875,7 +6920,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6887,27 +6932,27 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>20</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6918,7 +6963,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6927,23 +6972,19 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>148</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -6991,50 +7032,50 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7043,23 +7084,21 @@
         <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7095,53 +7134,55 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7150,7 +7191,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7159,20 +7200,18 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>215</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7197,13 +7236,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7221,25 +7260,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7250,12 +7289,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7264,7 +7305,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7276,17 +7317,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7335,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7347,13 +7386,13 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7364,10 +7403,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7387,21 +7426,23 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>215</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7425,13 +7466,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7449,7 +7490,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7467,21 +7508,21 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7492,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7501,20 +7542,22 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7569,7 +7612,7 @@
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
@@ -7581,13 +7624,13 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7606,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7615,18 +7658,20 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7651,13 +7696,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7681,7 +7726,7 @@
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -7693,7 +7738,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7704,10 +7749,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7730,15 +7775,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7787,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7802,16 +7849,16 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -7842,15 +7889,17 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7875,13 +7924,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7917,7 +7966,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7928,10 +7977,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7942,7 +7991,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7954,16 +8003,18 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8011,25 +8062,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>285</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8040,14 +8091,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8066,17 +8117,15 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N56" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8101,13 +8150,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8125,7 +8174,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8137,13 +8186,13 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8154,14 +8203,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8174,26 +8223,22 @@
         <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N57" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O57" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8241,7 +8286,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8253,27 +8298,27 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>129</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8284,7 +8329,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8296,13 +8341,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>403</v>
+        <v>174</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8329,13 +8374,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8353,13 +8398,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -8371,7 +8416,7 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8382,10 +8427,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8393,7 +8438,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8408,13 +8453,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8465,10 +8510,10 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8477,13 +8522,13 @@
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8494,14 +8539,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8520,20 +8565,18 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>413</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8581,7 +8624,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>155</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8593,13 +8636,13 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8617,7 +8660,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8630,24 +8673,26 @@
         <v>20</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -8671,13 +8716,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8695,7 +8740,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8707,23 +8752,477 @@
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8733,7 +9232,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,7 +271,7 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}termination-reason-code-invariant:When status is stopped, only certain statusReason values are allowed {status = 'stopped' and statusReason.exists() and statusReason.coding.exists() implies statusReason.coding.exists(system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006'))}termination-reason-invariant:Certain statusReason values are allowed only when status is stopped {statusReason.exists() and statusReason.coding.exists(
       system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or
- code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-rad-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-rad-req-2:The performedPeriod element is required and must be provided. {performedPeriod.exists()}o-rad-req-3:The actualNumberOfSessions extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions').exists()}o-rad-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
+ code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-rad-req-1:The subject element is required and must be provided. {subject.exists()}o-rad-req-2:The performedPeriod element is required and must be provided. {performedPeriod.exists()}o-rad-req-3:The actualNumberOfSessions extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-radiotherapy-sessions').exists()}o-rad-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
